--- a/data/algos_family.xlsx
+++ b/data/algos_family.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="289" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="289" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -876,13 +876,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A154" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -908,7 +908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -923,7 +923,7 @@
         <v>algos_family[1,] = 'NNET'</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -938,7 +938,7 @@
         <v>algos_family[2,] = 'BST'</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -953,7 +953,7 @@
         <v>algos_family[3,] = 'BAG'</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -968,7 +968,7 @@
         <v>algos_family[4,] = 'BAG'</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -983,7 +983,7 @@
         <v>algos_family[5,] = 'BAG'</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -998,7 +998,7 @@
         <v>algos_family[6,] = 'BAG'</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>algos_family[7,] = 'BAG'</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>algos_family[8,] = 'BAG'</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>algos_family[9,] = 'BAG'</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>algos_family[10,] = 'BAG'</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>algos_family[11,] = 'BAG'</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>algos_family[12,] = 'BAG'</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>algos_family[13,] = 'BAG'</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>algos_family[14,] = 'BAG'</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>algos_family[15,] = 'BAG'</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>algos_family[16,] = 'BAG'</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>algos_family[17,] = 'DT'</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>algos_family[18,] = 'BST'</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>algos_family[19,] = 'BST'</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>algos_family[20,] = 'BST'</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>algos_family[21,] = 'BST'</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>algos_family[22,] = 'BST'</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>algos_family[23,] = 'BST'</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>algos_family[24,] = 'BST'</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>algos_family[25,] = 'BST'</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>algos_family[26,] = 'BST'</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>algos_family[27,] = 'BST'</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>algos_family[28,] = 'BST'</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>algos_family[31,] = 'DT'</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>algos_family[32,] = 'RF'</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>algos_family[33,] = 'DT'</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>algos_family[34,] = 'DT'</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>47</v>
       </c>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>48</v>
       </c>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>49</v>
       </c>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>50</v>
       </c>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>51</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>52</v>
       </c>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>53</v>
       </c>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>54</v>
       </c>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>60</v>
       </c>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>61</v>
       </c>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>62</v>
       </c>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>63</v>
       </c>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>64</v>
       </c>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>65</v>
       </c>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>66</v>
       </c>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>67</v>
       </c>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>68</v>
       </c>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>69</v>
       </c>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>70</v>
       </c>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>71</v>
       </c>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>72</v>
       </c>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>73</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>74</v>
       </c>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>75</v>
       </c>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>76</v>
       </c>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>77</v>
       </c>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>78</v>
       </c>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>79</v>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>80</v>
       </c>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>81</v>
       </c>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>82</v>
       </c>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>83</v>
       </c>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>84</v>
       </c>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>85</v>
       </c>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>86</v>
       </c>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>87</v>
       </c>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>88</v>
       </c>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>89</v>
       </c>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>90</v>
       </c>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>91</v>
       </c>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>92</v>
       </c>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>93</v>
       </c>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>94</v>
       </c>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>95</v>
       </c>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>96</v>
       </c>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>97</v>
       </c>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>98</v>
       </c>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>99</v>
       </c>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>100</v>
       </c>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>101</v>
       </c>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>102</v>
       </c>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>103</v>
       </c>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>104</v>
       </c>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>105</v>
       </c>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>106</v>
       </c>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>107</v>
       </c>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>108</v>
       </c>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>109</v>
       </c>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>110</v>
       </c>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>111</v>
       </c>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>112</v>
       </c>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>113</v>
       </c>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>114</v>
       </c>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>115</v>
       </c>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>116</v>
       </c>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>117</v>
       </c>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>118</v>
       </c>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>119</v>
       </c>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>120</v>
       </c>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>121</v>
       </c>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>122</v>
       </c>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <v>123</v>
       </c>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <v>124</v>
       </c>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
         <v>125</v>
       </c>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
         <v>126</v>
       </c>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
         <v>127</v>
       </c>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
         <v>128</v>
       </c>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
         <v>129</v>
       </c>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
         <v>130</v>
       </c>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
         <v>131</v>
       </c>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
         <v>132</v>
       </c>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
         <v>133</v>
       </c>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
         <v>134</v>
       </c>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
         <v>135</v>
       </c>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
         <v>136</v>
       </c>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
         <v>137</v>
       </c>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
         <v>138</v>
       </c>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
         <v>139</v>
       </c>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
         <v>140</v>
       </c>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
         <v>141</v>
       </c>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
         <v>142</v>
       </c>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
         <v>143</v>
       </c>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
         <v>144</v>
       </c>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
         <v>145</v>
       </c>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
         <v>146</v>
       </c>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
         <v>147</v>
       </c>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
         <v>148</v>
       </c>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
         <v>149</v>
       </c>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
         <v>150</v>
       </c>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
         <v>151</v>
       </c>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
         <v>152</v>
       </c>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
         <v>153</v>
       </c>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
         <v>154</v>
       </c>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
         <v>155</v>
       </c>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
         <v>156</v>
       </c>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
         <v>157</v>
       </c>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
         <v>158</v>
       </c>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
         <v>159</v>
       </c>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
         <v>160</v>
       </c>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
         <v>161</v>
       </c>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
         <v>162</v>
       </c>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
         <v>163</v>
       </c>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
         <v>164</v>
       </c>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
         <v>165</v>
       </c>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
         <v>166</v>
       </c>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
         <v>167</v>
       </c>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
         <v>168</v>
       </c>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
         <v>169</v>
       </c>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
         <v>170</v>
       </c>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
         <v>171</v>
       </c>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
         <v>172</v>
       </c>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
         <v>173</v>
       </c>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
         <v>174</v>
       </c>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
         <v>175</v>
       </c>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
         <v>176</v>
       </c>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
         <v>177</v>
       </c>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
         <v>178</v>
       </c>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
         <v>179</v>
       </c>
@@ -3739,13 +3739,7 @@
       <c r="F180" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D180">
-    <filterColumn colId="2">
-      <customFilters and="true">
-        <customFilter operator="equal" val="BY"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D180"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3764,8 +3758,8 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="D2:D180 C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
